--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_09-25.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_09-25.xlsx
@@ -47,6 +47,12 @@
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -63,6 +69,30 @@
   </si>
   <si>
     <t>1:2</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>-4:0</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>Sunday, 4 January, 2026 9:25 AM</t>
@@ -742,11 +772,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>0.33000000000000002</v>
+        <v>1.3300000000000001</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -768,11 +798,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>169.19999999999999</v>
+        <v>16</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -794,45 +824,175 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>108</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="26.25" customHeight="1">
-      <c r="K10" s="11">
-        <v>475.19999999999999</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="12">
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="B10" s="7">
         <v>18</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c t="s" r="F11" s="13">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c t="s" r="H10" s="8">
         <v>19</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c t="s" r="I11" s="15">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <v>108</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c t="s" r="B11" s="7">
         <v>20</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c t="s" r="H11" s="8">
+        <v>21</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9">
+        <v>10</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c t="s" r="B12" s="7">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c t="s" r="H12" s="8">
+        <v>23</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9">
+        <v>8</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" customHeight="1">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c t="s" r="B13" s="7">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c t="s" r="H13" s="8">
+        <v>25</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9">
+        <v>45</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c t="s" r="B14" s="7">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c t="s" r="H14" s="8">
+        <v>27</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9">
+        <v>30</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="26.25" customHeight="1">
+      <c r="K15" s="11">
+        <v>616.20000000000005</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="12">
+        <v>28</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c t="s" r="F16" s="13">
+        <v>29</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c t="s" r="I16" s="15">
+        <v>30</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="44">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -858,10 +1018,25 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:N16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
